--- a/biology/Médecine/Acide_acéburique/Acide_acéburique.xlsx
+++ b/biology/Médecine/Acide_acéburique/Acide_acéburique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_ac%C3%A9burique</t>
+          <t>Acide_acéburique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'acide acéburique, également appelé acide 4-acétoxybutanoïque ou acétate d'acide 4-hydroxybutyrique, est un médicament décrit comme un analgésique qui n'a jamais été commercialisé[2]. C’est l’ester acétylique du gamma-hydroxybutyrate (GHB, qui est la base conjuguée de l'acide 4-hydroxybutanoïque), qui, compte tenu de sa relation structurelle avec le GHB, se comporterait probablement comme un prodrogue[réf. souhaitée].
+L'acide acéburique, également appelé acide 4-acétoxybutanoïque ou acétate d'acide 4-hydroxybutyrique, est un médicament décrit comme un analgésique qui n'a jamais été commercialisé. C’est l’ester acétylique du gamma-hydroxybutyrate (GHB, qui est la base conjuguée de l'acide 4-hydroxybutanoïque), qui, compte tenu de sa relation structurelle avec le GHB, se comporterait probablement comme un prodrogue[réf. souhaitée].
 </t>
         </is>
       </c>
